--- a/data/2026-01-26/leaderboard.xlsx
+++ b/data/2026-01-26/leaderboard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>rank</t>
   </si>
@@ -40,28 +40,118 @@
     <t>workout_types</t>
   </si>
   <si>
-    <t>m.marycatherine@outlook.com</t>
+    <t>manish.indoriya@gmail.com</t>
+  </si>
+  <si>
+    <t>rajasekhar150520@gmail.com</t>
+  </si>
+  <si>
+    <t>avinash.b0802@gmail.com</t>
+  </si>
+  <si>
+    <t>karthikchetla0308@gmail.com</t>
+  </si>
+  <si>
+    <t>vaishali14041992@gmail.com</t>
+  </si>
+  <si>
+    <t>sjraut3108@gmail.com</t>
+  </si>
+  <si>
+    <t>ghoshsubhajit75@gmail.com</t>
+  </si>
+  <si>
+    <t>sunil.ynvd@gmail.com</t>
   </si>
   <si>
     <t>krishna.sabbu@gmail.com</t>
   </si>
   <si>
-    <t>sree.chbiotech@gmail.com</t>
-  </si>
-  <si>
-    <t>shine.sushma.thapa@gmail.com</t>
+    <t>srevuri2@gmail.com</t>
+  </si>
+  <si>
+    <t>krisbhappy@icloud.com</t>
+  </si>
+  <si>
+    <t>adiagutsyboy@gmail.com</t>
+  </si>
+  <si>
+    <t>jaswanthrajeti@gmail.com</t>
+  </si>
+  <si>
+    <t>sanzay.16@gmail.com</t>
+  </si>
+  <si>
+    <t>sonal.agrawal9947@gmail.com</t>
+  </si>
+  <si>
+    <t>sarath</t>
+  </si>
+  <si>
+    <t>haripriyanv@gmail.com</t>
+  </si>
+  <si>
+    <t>kundanikareddyb@gmail.com</t>
+  </si>
+  <si>
+    <t>vamsikrishnabattineedi@gmail.com</t>
+  </si>
+  <si>
+    <t>vdpchittala@gmail.com</t>
+  </si>
+  <si>
+    <t>kumaran47@gmail.com</t>
+  </si>
+  <si>
+    <t>flowervalli@gmail.com</t>
+  </si>
+  <si>
+    <t>joacatar@gmail.com</t>
+  </si>
+  <si>
+    <t>quadri.yousuf8@gmail.com</t>
+  </si>
+  <si>
+    <t>simhadri.bobba@gmail.com</t>
+  </si>
+  <si>
+    <t>keerthanasenthil02@gmail.com</t>
   </si>
   <si>
     <t>rameshsankars@gmail.com</t>
   </si>
   <si>
-    <t>padmanaresh1986@gmail.com</t>
+    <t>tarunbc29@gmail.com</t>
+  </si>
+  <si>
+    <t>jyothsna.munipalle@gmail.com</t>
+  </si>
+  <si>
+    <t>kalyan9999@live.com</t>
+  </si>
+  <si>
+    <t>revathipadma25@gmail.com</t>
+  </si>
+  <si>
+    <t>cardio</t>
+  </si>
+  <si>
+    <t>cardio, sport</t>
+  </si>
+  <si>
+    <t>sport</t>
   </si>
   <si>
     <t>cardio, strength_training</t>
   </si>
   <si>
-    <t>cardio</t>
+    <t>cardio, yoga</t>
+  </si>
+  <si>
+    <t>sport, strength_training</t>
+  </si>
+  <si>
+    <t>yoga</t>
   </si>
 </sst>
 </file>
@@ -419,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,22 +549,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>26009</v>
+        <v>15150</v>
       </c>
       <c r="D2">
-        <v>13367</v>
+        <v>413</v>
       </c>
       <c r="E2">
-        <v>18.97</v>
+        <v>7.04</v>
       </c>
       <c r="F2">
-        <v>827</v>
+        <v>112</v>
       </c>
       <c r="G2">
-        <v>3220</v>
+        <v>1300</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -485,22 +575,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>33287</v>
+        <v>26156</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>33.59</v>
+        <v>30.47</v>
       </c>
       <c r="F3">
-        <v>297.95</v>
+        <v>1368</v>
       </c>
       <c r="G3">
-        <v>2015</v>
+        <v>1300</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -511,19 +601,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>34723</v>
+        <v>20089</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1153</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>16.02</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G4">
-        <v>500</v>
+        <v>1200</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,19 +627,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>27670</v>
+        <v>23911</v>
       </c>
       <c r="D5">
-        <v>528</v>
+        <v>181</v>
       </c>
       <c r="E5">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="G5">
-        <v>300</v>
+        <v>1100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -557,22 +653,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>9886</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>20.926</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="G6">
-        <v>225</v>
+        <v>780</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -583,22 +679,660 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>253</v>
+        <v>8399</v>
       </c>
       <c r="D7">
-        <v>60.6</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.99</v>
+        <v>4.5</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="G7">
+        <v>780</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>20790</v>
+      </c>
+      <c r="D8">
+        <v>67</v>
+      </c>
+      <c r="E8">
+        <v>5.63</v>
+      </c>
+      <c r="F8">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>15729</v>
+      </c>
+      <c r="D9">
+        <v>2385</v>
+      </c>
+      <c r="E9">
+        <v>16.73</v>
+      </c>
+      <c r="F9">
+        <v>181</v>
+      </c>
+      <c r="G9">
+        <v>700</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>6606</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>11.35</v>
+      </c>
+      <c r="F10">
+        <v>87</v>
+      </c>
+      <c r="G10">
+        <v>635</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>394</v>
+      </c>
+      <c r="D11">
+        <v>657</v>
+      </c>
+      <c r="E11">
+        <v>16.26</v>
+      </c>
+      <c r="F11">
+        <v>170</v>
+      </c>
+      <c r="G11">
+        <v>625</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>180</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>55</v>
+      </c>
+      <c r="G12">
+        <v>625</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>887</v>
+      </c>
+      <c r="E13">
+        <v>7.56</v>
+      </c>
+      <c r="F13">
+        <v>154</v>
+      </c>
+      <c r="G13">
+        <v>625</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>12099</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>550</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>2085</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1.76</v>
+      </c>
+      <c r="F15">
+        <v>42</v>
+      </c>
+      <c r="G15">
+        <v>525</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>10000</v>
+      </c>
+      <c r="D16">
+        <v>1095</v>
+      </c>
+      <c r="E16">
+        <v>17.52</v>
+      </c>
+      <c r="F16">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>480</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>5932</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1.36</v>
+      </c>
+      <c r="F17">
+        <v>42</v>
+      </c>
+      <c r="G17">
+        <v>435</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>5007</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3.9</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>435</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>227</v>
+      </c>
+      <c r="E19">
+        <v>3.5</v>
+      </c>
+      <c r="F19">
+        <v>42</v>
+      </c>
+      <c r="G19">
+        <v>425</v>
+      </c>
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>10072</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>350</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>11796</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>350</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>10000</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>1.8</v>
+      </c>
+      <c r="F22">
+        <v>1.8</v>
+      </c>
+      <c r="G22">
+        <v>280</v>
+      </c>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>176.94</v>
+      </c>
+      <c r="F23">
+        <v>47</v>
+      </c>
+      <c r="G23">
         <v>225</v>
       </c>
-      <c r="H7" t="s">
-        <v>15</v>
+      <c r="H23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>207</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>45</v>
+      </c>
+      <c r="G24">
+        <v>225</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>4929</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>225</v>
+      </c>
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>845</v>
+      </c>
+      <c r="F26">
+        <v>81</v>
+      </c>
+      <c r="G26">
+        <v>225</v>
+      </c>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>14.9</v>
+      </c>
+      <c r="F27">
+        <v>64</v>
+      </c>
+      <c r="G27">
+        <v>225</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <v>225</v>
+      </c>
+      <c r="H28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>10021</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>10832</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>7074</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>179</v>
+      </c>
+      <c r="G31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>6733</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/2026-01-26/leaderboard.xlsx
+++ b/data/2026-01-26/leaderboard.xlsx
@@ -46,81 +46,81 @@
     <t>rajasekhar150520@gmail.com</t>
   </si>
   <si>
+    <t>karthikchetla0308@gmail.com</t>
+  </si>
+  <si>
     <t>avinash.b0802@gmail.com</t>
   </si>
   <si>
-    <t>karthikchetla0308@gmail.com</t>
-  </si>
-  <si>
     <t>vaishali14041992@gmail.com</t>
   </si>
   <si>
+    <t>sunil.ynvd@gmail.com</t>
+  </si>
+  <si>
+    <t>ghoshsubhajit75@gmail.com</t>
+  </si>
+  <si>
     <t>sjraut3108@gmail.com</t>
   </si>
   <si>
-    <t>ghoshsubhajit75@gmail.com</t>
-  </si>
-  <si>
-    <t>sunil.ynvd@gmail.com</t>
+    <t>krisbhappy@icloud.com</t>
+  </si>
+  <si>
+    <t>srevuri2@gmail.com</t>
+  </si>
+  <si>
+    <t>adiagutsyboy@gmail.com</t>
   </si>
   <si>
     <t>krishna.sabbu@gmail.com</t>
   </si>
   <si>
-    <t>srevuri2@gmail.com</t>
-  </si>
-  <si>
-    <t>krisbhappy@icloud.com</t>
-  </si>
-  <si>
-    <t>adiagutsyboy@gmail.com</t>
+    <t>sarath</t>
+  </si>
+  <si>
+    <t>sanzay.16@gmail.com</t>
+  </si>
+  <si>
+    <t>sonal.agrawal9947@gmail.com</t>
+  </si>
+  <si>
+    <t>haripriyanv@gmail.com</t>
+  </si>
+  <si>
+    <t>kundanikareddyb@gmail.com</t>
   </si>
   <si>
     <t>jaswanthrajeti@gmail.com</t>
   </si>
   <si>
-    <t>sanzay.16@gmail.com</t>
-  </si>
-  <si>
-    <t>sonal.agrawal9947@gmail.com</t>
-  </si>
-  <si>
-    <t>sarath</t>
-  </si>
-  <si>
-    <t>haripriyanv@gmail.com</t>
-  </si>
-  <si>
-    <t>kundanikareddyb@gmail.com</t>
+    <t>vdpchittala@gmail.com</t>
   </si>
   <si>
     <t>vamsikrishnabattineedi@gmail.com</t>
   </si>
   <si>
-    <t>vdpchittala@gmail.com</t>
+    <t>joacatar@gmail.com</t>
+  </si>
+  <si>
+    <t>flowervalli@gmail.com</t>
+  </si>
+  <si>
+    <t>keerthanasenthil02@gmail.com</t>
+  </si>
+  <si>
+    <t>quadri.yousuf8@gmail.com</t>
+  </si>
+  <si>
+    <t>simhadri.bobba@gmail.com</t>
+  </si>
+  <si>
+    <t>rameshsankars@gmail.com</t>
   </si>
   <si>
     <t>kumaran47@gmail.com</t>
   </si>
   <si>
-    <t>flowervalli@gmail.com</t>
-  </si>
-  <si>
-    <t>joacatar@gmail.com</t>
-  </si>
-  <si>
-    <t>quadri.yousuf8@gmail.com</t>
-  </si>
-  <si>
-    <t>simhadri.bobba@gmail.com</t>
-  </si>
-  <si>
-    <t>keerthanasenthil02@gmail.com</t>
-  </si>
-  <si>
-    <t>rameshsankars@gmail.com</t>
-  </si>
-  <si>
     <t>tarunbc29@gmail.com</t>
   </si>
   <si>
@@ -136,10 +136,10 @@
     <t>cardio</t>
   </si>
   <si>
+    <t>sport</t>
+  </si>
+  <si>
     <t>cardio, sport</t>
-  </si>
-  <si>
-    <t>sport</t>
   </si>
   <si>
     <t>cardio, strength_training</t>
@@ -549,19 +549,19 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>15150</v>
+        <v>30300</v>
       </c>
       <c r="D2">
-        <v>413</v>
+        <v>826</v>
       </c>
       <c r="E2">
-        <v>7.04</v>
+        <v>14.08</v>
       </c>
       <c r="F2">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="G2">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="H2" t="s">
         <v>39</v>
@@ -575,19 +575,19 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>26156</v>
+        <v>52312</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>30.47</v>
+        <v>60.94</v>
       </c>
       <c r="F3">
-        <v>1368</v>
+        <v>2736</v>
       </c>
       <c r="G3">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="H3" t="s">
         <v>39</v>
@@ -601,19 +601,19 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>20089</v>
+        <v>47822</v>
       </c>
       <c r="D4">
-        <v>1153</v>
+        <v>362</v>
       </c>
       <c r="E4">
-        <v>16.02</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>60</v>
+        <v>426</v>
       </c>
       <c r="G4">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="H4" t="s">
         <v>40</v>
@@ -627,19 +627,19 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>23911</v>
+        <v>40178</v>
       </c>
       <c r="D5">
-        <v>181</v>
+        <v>2306</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>32.04</v>
       </c>
       <c r="F5">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="G5">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="H5" t="s">
         <v>41</v>
@@ -653,19 +653,19 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>9886</v>
+        <v>19772</v>
       </c>
       <c r="D6">
-        <v>950</v>
+        <v>1900</v>
       </c>
       <c r="E6">
-        <v>20.926</v>
+        <v>41.852</v>
       </c>
       <c r="F6">
-        <v>130</v>
+        <v>637</v>
       </c>
       <c r="G6">
-        <v>780</v>
+        <v>1660</v>
       </c>
       <c r="H6" t="s">
         <v>42</v>
@@ -679,22 +679,22 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>8399</v>
+        <v>31458</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>4770</v>
       </c>
       <c r="E7">
-        <v>4.5</v>
+        <v>33.46</v>
       </c>
       <c r="F7">
-        <v>155</v>
+        <v>362</v>
       </c>
       <c r="G7">
-        <v>780</v>
+        <v>1400</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -705,19 +705,19 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>20790</v>
+        <v>41580</v>
       </c>
       <c r="D8">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="E8">
-        <v>5.63</v>
+        <v>11.26</v>
       </c>
       <c r="F8">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="G8">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
@@ -731,22 +731,22 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>15729</v>
+        <v>16798</v>
       </c>
       <c r="D9">
-        <v>2385</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>16.73</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>181</v>
+        <v>270</v>
       </c>
       <c r="G9">
-        <v>700</v>
+        <v>1360</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -757,22 +757,22 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>6606</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="E10">
-        <v>11.35</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="G10">
-        <v>635</v>
+        <v>1250</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -783,19 +783,19 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>394</v>
+        <v>788</v>
       </c>
       <c r="D11">
-        <v>657</v>
+        <v>1314</v>
       </c>
       <c r="E11">
-        <v>16.26</v>
+        <v>32.53</v>
       </c>
       <c r="F11">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="G11">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
@@ -809,22 +809,22 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>180</v>
+        <v>1774</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>15.12</v>
       </c>
       <c r="F12">
-        <v>55</v>
+        <v>308</v>
       </c>
       <c r="G12">
-        <v>625</v>
+        <v>1250</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -835,22 +835,22 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>13212</v>
       </c>
       <c r="D13">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>7.56</v>
+        <v>22.7</v>
       </c>
       <c r="F13">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G13">
-        <v>625</v>
+        <v>1070</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -861,22 +861,22 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>12099</v>
+        <v>11864</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G14">
-        <v>550</v>
+        <v>1070</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -887,22 +887,22 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>2085</v>
+        <v>4170</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.76</v>
+        <v>6.859999999999999</v>
       </c>
       <c r="F15">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="G15">
-        <v>525</v>
+        <v>1050</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -913,19 +913,19 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D16">
-        <v>1095</v>
+        <v>2190</v>
       </c>
       <c r="E16">
-        <v>17.52</v>
+        <v>35.04</v>
       </c>
       <c r="F16">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G16">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="H16" t="s">
         <v>39</v>
@@ -939,22 +939,22 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>5932</v>
+        <v>10014</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.36</v>
+        <v>7.8</v>
       </c>
       <c r="F17">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>435</v>
+        <v>870</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -965,22 +965,22 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>5007</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="E18">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G18">
-        <v>435</v>
+        <v>850</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -991,19 +991,19 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>24198</v>
       </c>
       <c r="D19">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>425</v>
+        <v>700</v>
       </c>
       <c r="H19" t="s">
         <v>39</v>
@@ -1017,7 +1017,7 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>10072</v>
+        <v>23592</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G20">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="H20" t="s">
         <v>39</v>
@@ -1043,7 +1043,7 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>11796</v>
+        <v>20144</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1052,10 +1052,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="H21" t="s">
         <v>39</v>
@@ -1069,22 +1069,22 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>414</v>
       </c>
       <c r="E22">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.8</v>
+        <v>90</v>
       </c>
       <c r="G22">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1095,19 +1095,19 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>176.94</v>
+        <v>353.88</v>
       </c>
       <c r="F23">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="G23">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="H23" t="s">
         <v>39</v>
@@ -1124,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>29.8</v>
       </c>
       <c r="F24">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="G24">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1147,7 +1147,7 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>4929</v>
+        <v>9858</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G25">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="H25" t="s">
         <v>39</v>
@@ -1179,13 +1179,13 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>845</v>
+        <v>1690</v>
       </c>
       <c r="F26">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="G26">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="H26" t="s">
         <v>39</v>
@@ -1205,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G27">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="H27" t="s">
         <v>39</v>
@@ -1225,19 +1225,19 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="F28">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="G28">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="H28" t="s">
         <v>39</v>
@@ -1251,7 +1251,7 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>10021</v>
+        <v>20042</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1274,7 +1274,7 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>10832</v>
+        <v>21664</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1297,7 +1297,7 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>7074</v>
+        <v>14148</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>179</v>
+        <v>358</v>
       </c>
       <c r="G31">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1320,7 +1320,7 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>6733</v>
+        <v>13466</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/2026-01-26/leaderboard.xlsx
+++ b/data/2026-01-26/leaderboard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
   <si>
     <t>rank</t>
   </si>
@@ -40,69 +40,93 @@
     <t>workout_types</t>
   </si>
   <si>
+    <t>rajasekhar150520@gmail.com</t>
+  </si>
+  <si>
+    <t>karthikchetla0308@gmail.com</t>
+  </si>
+  <si>
     <t>manish.indoriya@gmail.com</t>
   </si>
   <si>
-    <t>rajasekhar150520@gmail.com</t>
-  </si>
-  <si>
-    <t>karthikchetla0308@gmail.com</t>
-  </si>
-  <si>
     <t>avinash.b0802@gmail.com</t>
   </si>
   <si>
     <t>vaishali14041992@gmail.com</t>
   </si>
   <si>
+    <t>ghoshsubhajit75@gmail.com</t>
+  </si>
+  <si>
+    <t>srevuri2@gmail.com</t>
+  </si>
+  <si>
     <t>sunil.ynvd@gmail.com</t>
   </si>
   <si>
-    <t>ghoshsubhajit75@gmail.com</t>
-  </si>
-  <si>
     <t>sjraut3108@gmail.com</t>
   </si>
   <si>
+    <t>krishna.sabbu@gmail.com</t>
+  </si>
+  <si>
+    <t>sanzay.16@gmail.com</t>
+  </si>
+  <si>
+    <t>vdpchittala@gmail.com</t>
+  </si>
+  <si>
+    <t>adiagutsyboy@gmail.com</t>
+  </si>
+  <si>
+    <t>haripriyanv@gmail.com</t>
+  </si>
+  <si>
     <t>krisbhappy@icloud.com</t>
   </si>
   <si>
-    <t>srevuri2@gmail.com</t>
-  </si>
-  <si>
-    <t>adiagutsyboy@gmail.com</t>
-  </si>
-  <si>
-    <t>krishna.sabbu@gmail.com</t>
+    <t>kundanikareddyb@gmail.com</t>
   </si>
   <si>
     <t>sarath</t>
   </si>
   <si>
-    <t>sanzay.16@gmail.com</t>
-  </si>
-  <si>
     <t>sonal.agrawal9947@gmail.com</t>
   </si>
   <si>
-    <t>haripriyanv@gmail.com</t>
-  </si>
-  <si>
-    <t>kundanikareddyb@gmail.com</t>
+    <t>m.marycatherine@outlook.com</t>
+  </si>
+  <si>
+    <t>jeevanandam@gmail.com</t>
+  </si>
+  <si>
+    <t>joacatar@gmail.com</t>
+  </si>
+  <si>
+    <t>vikasraj4982@gmail.com</t>
+  </si>
+  <si>
+    <t>kalyan9999@live (1).com</t>
   </si>
   <si>
     <t>jaswanthrajeti@gmail.com</t>
   </si>
   <si>
-    <t>vdpchittala@gmail.com</t>
+    <t>rameshsankars@gmail.com</t>
+  </si>
+  <si>
+    <t>simhadri.bobba@gmail.com</t>
+  </si>
+  <si>
+    <t>goutamraju.dandu@gmail.com</t>
+  </si>
+  <si>
+    <t>ajay.g415@gmail.com</t>
   </si>
   <si>
     <t>vamsikrishnabattineedi@gmail.com</t>
   </si>
   <si>
-    <t>joacatar@gmail.com</t>
-  </si>
-  <si>
     <t>flowervalli@gmail.com</t>
   </si>
   <si>
@@ -112,43 +136,160 @@
     <t>quadri.yousuf8@gmail.com</t>
   </si>
   <si>
-    <t>simhadri.bobba@gmail.com</t>
-  </si>
-  <si>
-    <t>rameshsankars@gmail.com</t>
+    <t>siddharthiibr@gmail.com</t>
+  </si>
+  <si>
+    <t>issaczerubbabel@gmail.com</t>
   </si>
   <si>
     <t>kumaran47@gmail.com</t>
   </si>
   <si>
+    <t>kalyan9999@live.com</t>
+  </si>
+  <si>
+    <t>r.shishir812@gmail.com</t>
+  </si>
+  <si>
     <t>tarunbc29@gmail.com</t>
   </si>
   <si>
+    <t>stellaniko@hotmail.com</t>
+  </si>
+  <si>
     <t>jyothsna.munipalle@gmail.com</t>
   </si>
   <si>
-    <t>kalyan9999@live.com</t>
+    <t>madhuriyoshi@gmail.com</t>
+  </si>
+  <si>
+    <t>aakritisaraogi0709@gmail.com</t>
+  </si>
+  <si>
+    <t>sonalip.mca@gmail.com</t>
+  </si>
+  <si>
+    <t>lindankemtaji@gmail.com</t>
+  </si>
+  <si>
+    <t>johnbosco72@gmail.com</t>
+  </si>
+  <si>
+    <t>gvsubbaiah2007@gmail.com</t>
+  </si>
+  <si>
+    <t>basavaiahjavatech@gmail.com</t>
+  </si>
+  <si>
+    <t>bhaskarangovindan@gmail.com</t>
+  </si>
+  <si>
+    <t>kranthi16t@gmail.com</t>
+  </si>
+  <si>
+    <t>rajumbaligar123@gmail.com</t>
+  </si>
+  <si>
+    <t>dheeraj.018@gmail.com</t>
+  </si>
+  <si>
+    <t>bussraj@gmail.com</t>
+  </si>
+  <si>
+    <t>rajeshkalwakuntla@gmail (1).com</t>
+  </si>
+  <si>
+    <t>pshashank80@gmail.com</t>
   </si>
   <si>
     <t>revathipadma25@gmail.com</t>
   </si>
   <si>
+    <t>geetasen.geet@gmail.com</t>
+  </si>
+  <si>
+    <t>rajkumar.msis@gmail.com</t>
+  </si>
+  <si>
+    <t>zdijaz@gmail.com</t>
+  </si>
+  <si>
+    <t>swethagorantla17@gmail.com</t>
+  </si>
+  <si>
+    <t>mj.crazzy@gmail.com</t>
+  </si>
+  <si>
+    <t>srisrihithab@gmail.com</t>
+  </si>
+  <si>
+    <t>rameshreddy.mv@gmail.com</t>
+  </si>
+  <si>
+    <t>bala.osho@gmail.com</t>
+  </si>
+  <si>
+    <t>abhishek.tutika@gmail.com</t>
+  </si>
+  <si>
+    <t>geetha.madhuri123@gmail.com</t>
+  </si>
+  <si>
+    <t>surekha.javadeveloper89@gmail.com</t>
+  </si>
+  <si>
+    <t>swetha.mitta22@gmail.com</t>
+  </si>
+  <si>
+    <t>srikanth.panangipalli@gmail.com</t>
+  </si>
+  <si>
+    <t>deepanshu.jdr@gmail.com</t>
+  </si>
+  <si>
+    <t>asrmca@gmail.com</t>
+  </si>
+  <si>
+    <t>mishra.amitk7@gmail.com</t>
+  </si>
+  <si>
+    <t>krajshekar535@gmail.com</t>
+  </si>
+  <si>
+    <t>sherstyuk@gmail.com</t>
+  </si>
+  <si>
+    <t>rajeshkalwakuntla@gmail (2).com</t>
+  </si>
+  <si>
+    <t>rajeshkalwakuntla@gmail.com</t>
+  </si>
+  <si>
+    <t>sudhakarnooka@gmail.com</t>
+  </si>
+  <si>
+    <t>cardio, sport</t>
+  </si>
+  <si>
     <t>cardio</t>
   </si>
   <si>
+    <t>cardio, strength_training</t>
+  </si>
+  <si>
+    <t>cardio, sport, strength_training</t>
+  </si>
+  <si>
+    <t>cardio, yoga</t>
+  </si>
+  <si>
     <t>sport</t>
   </si>
   <si>
-    <t>cardio, sport</t>
-  </si>
-  <si>
-    <t>cardio, strength_training</t>
-  </si>
-  <si>
-    <t>cardio, yoga</t>
-  </si>
-  <si>
-    <t>sport, strength_training</t>
+    <t>cardio, strength_training, yoga</t>
+  </si>
+  <si>
+    <t>strength_training</t>
   </si>
   <si>
     <t>yoga</t>
@@ -509,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,22 +690,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>30300</v>
+        <v>78471</v>
       </c>
       <c r="D2">
-        <v>826</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>14.08</v>
+        <v>132.96</v>
       </c>
       <c r="F2">
-        <v>224</v>
+        <v>4379.4</v>
       </c>
       <c r="G2">
-        <v>2400</v>
+        <v>4525</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -575,22 +716,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>52312</v>
+        <v>92560</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="E3">
-        <v>60.94</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2736</v>
+        <v>708.1900000000001</v>
       </c>
       <c r="G3">
-        <v>2400</v>
+        <v>4100</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -601,22 +742,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>47822</v>
+        <v>61685</v>
       </c>
       <c r="D4">
-        <v>362</v>
+        <v>1796</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>43.17</v>
       </c>
       <c r="F4">
-        <v>426</v>
+        <v>719</v>
       </c>
       <c r="G4">
-        <v>2200</v>
+        <v>4100</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -627,22 +768,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>40178</v>
+        <v>80283</v>
       </c>
       <c r="D5">
-        <v>2306</v>
+        <v>4704</v>
       </c>
       <c r="E5">
-        <v>32.04</v>
+        <v>64.13</v>
       </c>
       <c r="F5">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="G5">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -653,22 +794,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>19772</v>
+        <v>41905</v>
       </c>
       <c r="D6">
-        <v>1900</v>
+        <v>4044</v>
       </c>
       <c r="E6">
-        <v>41.852</v>
+        <v>76.49799999999999</v>
       </c>
       <c r="F6">
-        <v>637</v>
+        <v>1163</v>
       </c>
       <c r="G6">
-        <v>1660</v>
+        <v>3290</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -679,22 +820,22 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>31458</v>
+        <v>84117</v>
       </c>
       <c r="D7">
-        <v>4770</v>
+        <v>637</v>
       </c>
       <c r="E7">
-        <v>33.46</v>
+        <v>35.49</v>
       </c>
       <c r="F7">
-        <v>362</v>
+        <v>187</v>
       </c>
       <c r="G7">
-        <v>1400</v>
+        <v>3100</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -705,22 +846,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>41580</v>
+        <v>21279</v>
       </c>
       <c r="D8">
-        <v>134</v>
+        <v>2192</v>
       </c>
       <c r="E8">
-        <v>11.26</v>
+        <v>55.96</v>
       </c>
       <c r="F8">
-        <v>70</v>
+        <v>650</v>
       </c>
       <c r="G8">
-        <v>1400</v>
+        <v>2875</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -731,22 +872,22 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>16798</v>
+        <v>63343</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>9570</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>68.13</v>
       </c>
       <c r="F9">
-        <v>270</v>
+        <v>766</v>
       </c>
       <c r="G9">
-        <v>1360</v>
+        <v>2500</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -757,22 +898,22 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>35638</v>
       </c>
       <c r="D10">
-        <v>360</v>
+        <v>133</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>17.9</v>
       </c>
       <c r="F10">
-        <v>110</v>
+        <v>478</v>
       </c>
       <c r="G10">
-        <v>1250</v>
+        <v>2390</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -783,22 +924,22 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>788</v>
+        <v>39862</v>
       </c>
       <c r="D11">
-        <v>1314</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>32.53</v>
+        <v>43.22</v>
       </c>
       <c r="F11">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="G11">
-        <v>1250</v>
+        <v>2305</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -809,22 +950,22 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>15483</v>
       </c>
       <c r="D12">
-        <v>1774</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>15.12</v>
+        <v>14.18</v>
       </c>
       <c r="F12">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="G12">
-        <v>1250</v>
+        <v>2255</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -835,22 +976,22 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>13212</v>
+        <v>118913</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.7</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>174</v>
+        <v>485</v>
       </c>
       <c r="G13">
-        <v>1070</v>
+        <v>2250</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -861,22 +1002,22 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>11864</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3385</v>
       </c>
       <c r="E14">
-        <v>2.72</v>
+        <v>31.48</v>
       </c>
       <c r="F14">
-        <v>84</v>
+        <v>534</v>
       </c>
       <c r="G14">
-        <v>1070</v>
+        <v>2200</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -887,22 +1028,22 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>4170</v>
+        <v>35039</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="E15">
-        <v>6.859999999999999</v>
+        <v>94.81</v>
       </c>
       <c r="F15">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>1050</v>
+        <v>2105</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -913,22 +1054,22 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>2190</v>
+        <v>540</v>
       </c>
       <c r="E16">
-        <v>35.04</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="G16">
-        <v>960</v>
+        <v>1775</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -939,22 +1080,22 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>10014</v>
+        <v>11053</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>913</v>
       </c>
       <c r="E17">
-        <v>7.8</v>
+        <v>14.14</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="G17">
-        <v>870</v>
+        <v>1525</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -965,22 +1106,22 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>17796</v>
       </c>
       <c r="D18">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>4.08</v>
       </c>
       <c r="F18">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="G18">
-        <v>850</v>
+        <v>1505</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -991,22 +1132,22 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>24198</v>
+        <v>40000</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>4570</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>71.89</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G19">
-        <v>700</v>
+        <v>1420</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1017,22 +1158,22 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>23592</v>
+        <v>19209</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1128</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>15.52</v>
       </c>
       <c r="F20">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="G20">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1043,22 +1184,22 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>20144</v>
+        <v>20987</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1569</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>19.81</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="G21">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1069,22 +1210,22 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>8103</v>
       </c>
       <c r="D22">
-        <v>414</v>
+        <v>976</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
+        <v>226</v>
+      </c>
+      <c r="G22">
+        <v>1355</v>
+      </c>
+      <c r="H22" t="s">
         <v>90</v>
-      </c>
-      <c r="G22">
-        <v>450</v>
-      </c>
-      <c r="H22" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1095,22 +1236,22 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>106</v>
+        <v>5866</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2103</v>
       </c>
       <c r="E23">
-        <v>353.88</v>
+        <v>4.07</v>
       </c>
       <c r="F23">
-        <v>94</v>
+        <v>319</v>
       </c>
       <c r="G23">
-        <v>450</v>
+        <v>1235</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1121,22 +1262,22 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>25553</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>29.8</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="G24">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1147,7 +1288,7 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>9858</v>
+        <v>45663</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1156,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>450</v>
+        <v>1030</v>
       </c>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1179,16 +1320,16 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1690</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="G26">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1205,16 +1346,16 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2574.74</v>
       </c>
       <c r="F27">
-        <v>45</v>
+        <v>483</v>
       </c>
       <c r="G27">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1225,22 +1366,22 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>20000</v>
+        <v>13594</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>4305</v>
       </c>
       <c r="E28">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="F28">
-        <v>3.6</v>
+        <v>256</v>
       </c>
       <c r="G28">
-        <v>360</v>
+        <v>950</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1251,19 +1392,22 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>20042</v>
+        <v>17095</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>21.15</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="G29">
-        <v>300</v>
+        <v>900</v>
+      </c>
+      <c r="H29" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1274,7 +1418,7 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>21664</v>
+        <v>40828</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1286,7 +1430,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>300</v>
+        <v>900</v>
+      </c>
+      <c r="H30" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1297,19 +1444,22 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>14148</v>
+        <v>7210</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>530.8199999999999</v>
       </c>
       <c r="F31">
-        <v>358</v>
+        <v>141</v>
       </c>
       <c r="G31">
-        <v>70</v>
+        <v>810</v>
+      </c>
+      <c r="H31" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1320,19 +1470,1138 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>13466</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>44.7</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="G32">
+        <v>775</v>
+      </c>
+      <c r="H32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>14787</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>54</v>
+      </c>
+      <c r="G33">
+        <v>775</v>
+      </c>
+      <c r="H33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>10701</v>
+      </c>
+      <c r="D34">
+        <v>2495</v>
+      </c>
+      <c r="E34">
+        <v>7.79</v>
+      </c>
+      <c r="F34">
+        <v>934</v>
+      </c>
+      <c r="G34">
+        <v>750</v>
+      </c>
+      <c r="H34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>10018</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1.38</v>
+      </c>
+      <c r="F35">
+        <v>250</v>
+      </c>
+      <c r="G35">
+        <v>750</v>
+      </c>
+      <c r="H35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>30000</v>
+      </c>
+      <c r="D36">
+        <v>39</v>
+      </c>
+      <c r="E36">
+        <v>5.4</v>
+      </c>
+      <c r="F36">
+        <v>5.4</v>
+      </c>
+      <c r="G36">
+        <v>740</v>
+      </c>
+      <c r="H36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>46775</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>831</v>
+      </c>
+      <c r="G37">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>11976</v>
+      </c>
+      <c r="D38">
+        <v>2637</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>148</v>
+      </c>
+      <c r="G38">
+        <v>650</v>
+      </c>
+      <c r="H38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>32026</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>12015</v>
+      </c>
+      <c r="D40">
+        <v>554</v>
+      </c>
+      <c r="E40">
+        <v>9.02</v>
+      </c>
+      <c r="F40">
+        <v>159</v>
+      </c>
+      <c r="G40">
+        <v>550</v>
+      </c>
+      <c r="H40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>32496</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>405</v>
+      </c>
+      <c r="E42">
+        <v>0.26</v>
+      </c>
+      <c r="F42">
+        <v>77</v>
+      </c>
+      <c r="G42">
+        <v>525</v>
+      </c>
+      <c r="H42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>16137</v>
+      </c>
+      <c r="D43">
+        <v>766</v>
+      </c>
+      <c r="E43">
+        <v>16.2</v>
+      </c>
+      <c r="F43">
+        <v>34</v>
+      </c>
+      <c r="G43">
+        <v>500</v>
+      </c>
+      <c r="H43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>8554</v>
+      </c>
+      <c r="D44">
+        <v>1697</v>
+      </c>
+      <c r="E44">
+        <v>9.309999999999999</v>
+      </c>
+      <c r="F44">
+        <v>220</v>
+      </c>
+      <c r="G44">
+        <v>480</v>
+      </c>
+      <c r="H44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>8201</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>2.86</v>
+      </c>
+      <c r="F45">
+        <v>142</v>
+      </c>
+      <c r="G45">
+        <v>480</v>
+      </c>
+      <c r="H45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>7708</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.28</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>435</v>
+      </c>
+      <c r="H46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>4925</v>
+      </c>
+      <c r="D47">
+        <v>296</v>
+      </c>
+      <c r="E47">
+        <v>9.4</v>
+      </c>
+      <c r="F47">
+        <v>79</v>
+      </c>
+      <c r="G47">
+        <v>425</v>
+      </c>
+      <c r="H47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>7.94</v>
+      </c>
+      <c r="F48">
+        <v>81</v>
+      </c>
+      <c r="G48">
+        <v>425</v>
+      </c>
+      <c r="H48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>94</v>
+      </c>
+      <c r="G49">
+        <v>425</v>
+      </c>
+      <c r="H49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>12628</v>
+      </c>
+      <c r="D50">
+        <v>153</v>
+      </c>
+      <c r="E50">
+        <v>9.34</v>
+      </c>
+      <c r="F50">
+        <v>43</v>
+      </c>
+      <c r="G50">
+        <v>350</v>
+      </c>
+      <c r="H50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>13734</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>37</v>
+      </c>
+      <c r="G51">
+        <v>350</v>
+      </c>
+      <c r="H51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52">
+        <v>6131</v>
+      </c>
+      <c r="D52">
+        <v>304</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>38</v>
+      </c>
+      <c r="G52">
+        <v>335</v>
+      </c>
+      <c r="H52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>86</v>
+      </c>
+      <c r="G53">
+        <v>325</v>
+      </c>
+      <c r="H53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>457</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>60</v>
+      </c>
+      <c r="G54">
+        <v>325</v>
+      </c>
+      <c r="H54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>199</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>49</v>
+      </c>
+      <c r="G55">
+        <v>325</v>
+      </c>
+      <c r="H55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>28488</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>4.86</v>
+      </c>
+      <c r="F56">
+        <v>105</v>
+      </c>
+      <c r="G56">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57">
+        <v>5204</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>52</v>
+      </c>
+      <c r="G57">
+        <v>235</v>
+      </c>
+      <c r="H57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58">
+        <v>7447</v>
+      </c>
+      <c r="D58">
+        <v>1751</v>
+      </c>
+      <c r="E58">
+        <v>6.18</v>
+      </c>
+      <c r="F58">
+        <v>90</v>
+      </c>
+      <c r="G58">
+        <v>235</v>
+      </c>
+      <c r="H58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>5064</v>
+      </c>
+      <c r="D59">
+        <v>335</v>
+      </c>
+      <c r="E59">
+        <v>2.82</v>
+      </c>
+      <c r="F59">
+        <v>37</v>
+      </c>
+      <c r="G59">
+        <v>235</v>
+      </c>
+      <c r="H59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60">
+        <v>4697</v>
+      </c>
+      <c r="D60">
+        <v>221</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>38</v>
+      </c>
+      <c r="G60">
+        <v>225</v>
+      </c>
+      <c r="H60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>3.5</v>
+      </c>
+      <c r="F61">
+        <v>95</v>
+      </c>
+      <c r="G61">
+        <v>225</v>
+      </c>
+      <c r="H61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>277</v>
+      </c>
+      <c r="E62">
+        <v>0.27</v>
+      </c>
+      <c r="F62">
+        <v>56</v>
+      </c>
+      <c r="G62">
+        <v>225</v>
+      </c>
+      <c r="H62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>44</v>
+      </c>
+      <c r="G63">
+        <v>225</v>
+      </c>
+      <c r="H63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
         <v>70</v>
+      </c>
+      <c r="C64">
+        <v>10850</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65">
+        <v>10409</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66">
+        <v>10994</v>
+      </c>
+      <c r="D66">
+        <v>759</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>80</v>
+      </c>
+      <c r="G66">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67">
+        <v>7577</v>
+      </c>
+      <c r="D67">
+        <v>1799</v>
+      </c>
+      <c r="E67">
+        <v>10.17</v>
+      </c>
+      <c r="F67">
+        <v>300</v>
+      </c>
+      <c r="G67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68">
+        <v>5079</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69">
+        <v>7367</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70">
+        <v>1823</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71">
+        <v>4189</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>79</v>
+      </c>
+      <c r="G74">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>2626</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>75</v>
+      </c>
+      <c r="G75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76">
+        <v>4000</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/2026-01-26/leaderboard.xlsx
+++ b/data/2026-01-26/leaderboard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>rank</t>
   </si>
@@ -46,12 +46,12 @@
     <t>karthikchetla0308@gmail.com</t>
   </si>
   <si>
+    <t>rajasekhar150520@gmail.com</t>
+  </si>
+  <si>
     <t>ghoshsubhajit75@gmail.com</t>
   </si>
   <si>
-    <t>rajasekhar150520@gmail.com</t>
-  </si>
-  <si>
     <t>adiagutsyboy@gmail.com</t>
   </si>
   <si>
@@ -61,36 +61,39 @@
     <t>vaishali14041992@gmail.com</t>
   </si>
   <si>
+    <t>krishna.sabbu@gmail.com</t>
+  </si>
+  <si>
+    <t>sunil.ynvd@gmail.com</t>
+  </si>
+  <si>
+    <t>test.jpg</t>
+  </si>
+  <si>
+    <t>krisbhappy@icloud.com</t>
+  </si>
+  <si>
+    <t>vdpchittala@gmail.com</t>
+  </si>
+  <si>
+    <t>sarath</t>
+  </si>
+  <si>
     <t>sanzay.16@gmail.com</t>
   </si>
   <si>
-    <t>krishna.sabbu@gmail.com</t>
-  </si>
-  <si>
-    <t>sunil.ynvd@gmail.com</t>
+    <t>kumaran47@gmail.com</t>
+  </si>
+  <si>
+    <t>manish.indoriya@gmail.com</t>
+  </si>
+  <si>
+    <t>sonal.agrawal9947@gmail.com</t>
   </si>
   <si>
     <t>haripriyanv@gmail.com</t>
   </si>
   <si>
-    <t>krisbhappy@icloud.com</t>
-  </si>
-  <si>
-    <t>manish.indoriya@gmail.com</t>
-  </si>
-  <si>
-    <t>vdpchittala@gmail.com</t>
-  </si>
-  <si>
-    <t>sarath</t>
-  </si>
-  <si>
-    <t>sonal.agrawal9947@gmail.com</t>
-  </si>
-  <si>
-    <t>kumaran47@gmail.com</t>
-  </si>
-  <si>
     <t>quadri.yousuf8@gmail.com</t>
   </si>
   <si>
@@ -100,12 +103,12 @@
     <t>flowervalli@gmail.com</t>
   </si>
   <si>
+    <t>joacatar@gmail.com</t>
+  </si>
+  <si>
     <t>keerthanasenthil02@gmail.com</t>
   </si>
   <si>
-    <t>joacatar@gmail.com</t>
-  </si>
-  <si>
     <t>kundanikareddyb@gmail.com</t>
   </si>
   <si>
@@ -143,9 +146,6 @@
   </si>
   <si>
     <t>cardio, strength_training</t>
-  </si>
-  <si>
-    <t>cardio, sport</t>
   </si>
   <si>
     <t>cardio, yoga</t>
@@ -512,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,22 +552,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>40178</v>
+        <v>20089</v>
       </c>
       <c r="D2">
-        <v>2306</v>
+        <v>1153</v>
       </c>
       <c r="E2">
-        <v>32.04</v>
+        <v>16.02</v>
       </c>
       <c r="F2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -578,22 +578,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>47822</v>
+        <v>23911</v>
       </c>
       <c r="D3">
-        <v>362</v>
+        <v>181</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>455</v>
+        <v>202</v>
       </c>
       <c r="G3">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -604,22 +604,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>41580</v>
+        <v>26156</v>
       </c>
       <c r="D4">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>11.26</v>
+        <v>30.47</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>1368</v>
       </c>
       <c r="G4">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -630,22 +630,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>52312</v>
+        <v>20790</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E5">
-        <v>60.94</v>
+        <v>5.63</v>
       </c>
       <c r="F5">
-        <v>1544.4</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -656,22 +656,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>1774</v>
+        <v>887</v>
       </c>
       <c r="E6">
-        <v>15.12</v>
+        <v>7.56</v>
       </c>
       <c r="F6">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="G6">
-        <v>1450</v>
+        <v>725</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -682,22 +682,22 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>16798</v>
+        <v>8399</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="F7">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="G7">
-        <v>1360</v>
+        <v>680</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -708,22 +708,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>19772</v>
+        <v>9886</v>
       </c>
       <c r="D8">
-        <v>1900</v>
+        <v>950</v>
       </c>
       <c r="E8">
-        <v>41.852</v>
+        <v>20.926</v>
       </c>
       <c r="F8">
-        <v>808</v>
+        <v>404</v>
       </c>
       <c r="G8">
-        <v>1360</v>
+        <v>680</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -734,22 +734,22 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>4170</v>
+        <v>16388</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.2</v>
+        <v>11.35</v>
       </c>
       <c r="F9">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="G9">
-        <v>1250</v>
+        <v>600</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -760,22 +760,22 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>32776</v>
+        <v>15729</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2385</v>
       </c>
       <c r="E10">
-        <v>22.7</v>
+        <v>16.73</v>
       </c>
       <c r="F10">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="G10">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -786,22 +786,22 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>31458</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>4770</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>33.46</v>
+        <v>17.46</v>
       </c>
       <c r="F11">
-        <v>444</v>
+        <v>198</v>
       </c>
       <c r="G11">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -812,19 +812,19 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>10014</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E12">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G12">
-        <v>1070</v>
+        <v>500</v>
       </c>
       <c r="H12" t="s">
         <v>44</v>
@@ -838,22 +838,22 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>11796</v>
       </c>
       <c r="D13">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="G13">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -864,22 +864,22 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>23526</v>
+        <v>5932</v>
       </c>
       <c r="D14">
-        <v>826</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>14.08</v>
+        <v>1.36</v>
       </c>
       <c r="F14">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="G14">
-        <v>980</v>
+        <v>435</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -890,19 +890,19 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>23592</v>
+        <v>2085</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="F15">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="G15">
-        <v>900</v>
+        <v>425</v>
       </c>
       <c r="H15" t="s">
         <v>40</v>
@@ -916,22 +916,22 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>11864</v>
+        <v>10000</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>2.72</v>
+        <v>1.8</v>
       </c>
       <c r="F16">
-        <v>84</v>
+        <v>1.8</v>
       </c>
       <c r="G16">
-        <v>870</v>
+        <v>380</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -942,22 +942,22 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>20000</v>
+        <v>8376</v>
       </c>
       <c r="D17">
-        <v>2190</v>
+        <v>413</v>
       </c>
       <c r="E17">
-        <v>35.04</v>
+        <v>7.04</v>
       </c>
       <c r="F17">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="G17">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -968,22 +968,22 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>1095</v>
       </c>
       <c r="E18">
-        <v>3.6</v>
+        <v>17.52</v>
       </c>
       <c r="F18">
-        <v>3.6</v>
+        <v>36</v>
       </c>
       <c r="G18">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -994,22 +994,22 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>9858</v>
+        <v>5007</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="F19">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>650</v>
+        <v>335</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1020,22 +1020,22 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>788</v>
+        <v>4929</v>
       </c>
       <c r="D20">
-        <v>1314</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>32.54</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>340</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <v>650</v>
+        <v>325</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1046,22 +1046,22 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>106</v>
+        <v>394</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="E21">
-        <v>353.88</v>
+        <v>16.26</v>
       </c>
       <c r="F21">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="G21">
-        <v>650</v>
+        <v>325</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1072,22 +1072,22 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>29.8</v>
+        <v>176.94</v>
       </c>
       <c r="F22">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="G22">
-        <v>600</v>
+        <v>325</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>414</v>
+        <v>207</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="G23">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H23" t="s">
         <v>46</v>
@@ -1127,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>14.9</v>
       </c>
       <c r="F24">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G24">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="E25">
-        <v>1690</v>
+        <v>3.5</v>
       </c>
       <c r="F25">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="G25">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1182,16 +1182,16 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="F26">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="G26">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1202,7 +1202,7 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>24198</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1211,10 +1211,13 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G27">
-        <v>500</v>
+        <v>300</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1225,7 +1228,7 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>21664</v>
+        <v>12099</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1237,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1248,7 +1251,7 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>20144</v>
+        <v>10832</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1260,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1271,7 +1274,7 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>20042</v>
+        <v>10072</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1283,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1294,7 +1297,7 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>14148</v>
+        <v>10021</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1303,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1317,7 +1320,7 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>13466</v>
+        <v>7074</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1326,10 +1329,33 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="G32">
-        <v>270</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>6733</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/2026-01-26/leaderboard.xlsx
+++ b/data/2026-01-26/leaderboard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>rank</t>
   </si>
@@ -46,12 +46,12 @@
     <t>karthikchetla0308@gmail.com</t>
   </si>
   <si>
+    <t>ghoshsubhajit75@gmail.com</t>
+  </si>
+  <si>
     <t>rajasekhar150520@gmail.com</t>
   </si>
   <si>
-    <t>ghoshsubhajit75@gmail.com</t>
-  </si>
-  <si>
     <t>adiagutsyboy@gmail.com</t>
   </si>
   <si>
@@ -61,13 +61,16 @@
     <t>vaishali14041992@gmail.com</t>
   </si>
   <si>
+    <t>manish.indoriya@gmail.com</t>
+  </si>
+  <si>
     <t>krishna.sabbu@gmail.com</t>
   </si>
   <si>
     <t>sunil.ynvd@gmail.com</t>
   </si>
   <si>
-    <t>test.jpg</t>
+    <t>haripriyanv@gmail.com</t>
   </si>
   <si>
     <t>krisbhappy@icloud.com</t>
@@ -76,61 +79,55 @@
     <t>vdpchittala@gmail.com</t>
   </si>
   <si>
+    <t>kalyan9999@live.com</t>
+  </si>
+  <si>
     <t>sarath</t>
   </si>
   <si>
     <t>sanzay.16@gmail.com</t>
   </si>
   <si>
+    <t>sonal.agrawal9947@gmail.com</t>
+  </si>
+  <si>
+    <t>quadri.yousuf8@gmail.com</t>
+  </si>
+  <si>
+    <t>srevuri2@gmail.com</t>
+  </si>
+  <si>
+    <t>flowervalli@gmail.com</t>
+  </si>
+  <si>
+    <t>kundanikareddyb@gmail.com</t>
+  </si>
+  <si>
+    <t>joacatar@gmail.com</t>
+  </si>
+  <si>
+    <t>keerthanasenthil02@gmail.com</t>
+  </si>
+  <si>
+    <t>simhadri.bobba@gmail.com</t>
+  </si>
+  <si>
+    <t>rameshsankars@gmail.com</t>
+  </si>
+  <si>
+    <t>jaswanthrajeti@gmail.com</t>
+  </si>
+  <si>
+    <t>jyothsna.munipalle@gmail.com</t>
+  </si>
+  <si>
+    <t>vamsikrishnabattineedi@gmail.com</t>
+  </si>
+  <si>
+    <t>tarunbc29@gmail.com</t>
+  </si>
+  <si>
     <t>kumaran47@gmail.com</t>
-  </si>
-  <si>
-    <t>manish.indoriya@gmail.com</t>
-  </si>
-  <si>
-    <t>sonal.agrawal9947@gmail.com</t>
-  </si>
-  <si>
-    <t>haripriyanv@gmail.com</t>
-  </si>
-  <si>
-    <t>quadri.yousuf8@gmail.com</t>
-  </si>
-  <si>
-    <t>srevuri2@gmail.com</t>
-  </si>
-  <si>
-    <t>flowervalli@gmail.com</t>
-  </si>
-  <si>
-    <t>joacatar@gmail.com</t>
-  </si>
-  <si>
-    <t>keerthanasenthil02@gmail.com</t>
-  </si>
-  <si>
-    <t>kundanikareddyb@gmail.com</t>
-  </si>
-  <si>
-    <t>simhadri.bobba@gmail.com</t>
-  </si>
-  <si>
-    <t>rameshsankars@gmail.com</t>
-  </si>
-  <si>
-    <t>jaswanthrajeti@gmail.com</t>
-  </si>
-  <si>
-    <t>jyothsna.munipalle@gmail.com</t>
-  </si>
-  <si>
-    <t>vamsikrishnabattineedi@gmail.com</t>
-  </si>
-  <si>
-    <t>tarunbc29@gmail.com</t>
-  </si>
-  <si>
-    <t>kalyan9999@live.com</t>
   </si>
   <si>
     <t>revathipadma25@gmail.com</t>
@@ -512,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,7 +564,7 @@
         <v>900</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -587,13 +584,13 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="G3">
         <v>900</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -604,22 +601,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>26156</v>
+        <v>20790</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E4">
-        <v>30.47</v>
+        <v>5.63</v>
       </c>
       <c r="F4">
-        <v>1368</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -630,22 +627,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>20790</v>
+        <v>26156</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>5.63</v>
+        <v>30.47</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>1368</v>
       </c>
       <c r="G5">
         <v>800</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -671,7 +668,7 @@
         <v>725</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -691,13 +688,13 @@
         <v>4.5</v>
       </c>
       <c r="F7">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="G7">
         <v>680</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -717,13 +714,13 @@
         <v>20.926</v>
       </c>
       <c r="F8">
-        <v>404</v>
+        <v>125</v>
       </c>
       <c r="G8">
         <v>680</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -734,22 +731,22 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>16388</v>
+        <v>15150</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="E9">
-        <v>11.35</v>
+        <v>7.04</v>
       </c>
       <c r="F9">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="G9">
         <v>600</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -760,22 +757,22 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>15729</v>
+        <v>16388</v>
       </c>
       <c r="D10">
-        <v>2385</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>16.73</v>
+        <v>11.35</v>
       </c>
       <c r="F10">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="G10">
         <v>600</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -786,22 +783,22 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>15729</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2385</v>
       </c>
       <c r="E11">
-        <v>17.46</v>
+        <v>16.73</v>
       </c>
       <c r="F11">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G11">
         <v>600</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -812,22 +809,22 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>5007</v>
       </c>
       <c r="D12">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="F12">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -838,22 +835,22 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>11796</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G13">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -864,22 +861,22 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>5932</v>
+        <v>11796</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="G14">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -890,22 +887,22 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>2085</v>
+        <v>7074</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="G15">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -916,22 +913,22 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>10000</v>
+        <v>5932</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1.8</v>
+        <v>1.36</v>
       </c>
       <c r="F16">
-        <v>1.8</v>
+        <v>42</v>
       </c>
       <c r="G16">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -942,22 +939,22 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>8376</v>
+        <v>2085</v>
       </c>
       <c r="D17">
-        <v>413</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>7.04</v>
+        <v>5.1</v>
       </c>
       <c r="F17">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="G17">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -983,7 +980,7 @@
         <v>380</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -994,22 +991,22 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>5007</v>
+        <v>4929</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G19">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1020,22 +1017,22 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>4929</v>
+        <v>394</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>16.27</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="G20">
         <v>325</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1046,22 +1043,22 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>394</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>16.26</v>
+        <v>176.94</v>
       </c>
       <c r="F21">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="G21">
         <v>325</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1072,22 +1069,22 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="E22">
-        <v>176.94</v>
+        <v>3.5</v>
       </c>
       <c r="F22">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G22">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1113,7 +1110,7 @@
         <v>300</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1133,13 +1130,13 @@
         <v>14.9</v>
       </c>
       <c r="F24">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>300</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1153,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>3.5</v>
+        <v>845</v>
       </c>
       <c r="F25">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G25">
         <v>300</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1182,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>845</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G26">
         <v>300</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1202,7 +1199,7 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>12099</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1211,13 +1208,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>300</v>
-      </c>
-      <c r="H27" t="s">
-        <v>41</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1228,7 +1222,7 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>12099</v>
+        <v>10832</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1251,7 +1245,7 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>10832</v>
+        <v>10072</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1274,7 +1268,7 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>10072</v>
+        <v>10021</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1297,19 +1291,19 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>10021</v>
+        <v>10000</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G31">
-        <v>250</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1320,7 +1314,7 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>7074</v>
+        <v>6733</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1329,32 +1323,9 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33">
-        <v>6733</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
         <v>135</v>
       </c>
     </row>

--- a/data/2026-01-26/leaderboard.xlsx
+++ b/data/2026-01-26/leaderboard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>rank</t>
   </si>
@@ -61,75 +61,75 @@
     <t>vaishali14041992@gmail.com</t>
   </si>
   <si>
+    <t>sanzay.16@gmail.com</t>
+  </si>
+  <si>
     <t>manish.indoriya@gmail.com</t>
   </si>
   <si>
+    <t>sunil.ynvd@gmail.com</t>
+  </si>
+  <si>
+    <t>haripriyanv@gmail.com</t>
+  </si>
+  <si>
+    <t>krisbhappy@icloud.com</t>
+  </si>
+  <si>
+    <t>vdpchittala@gmail.com</t>
+  </si>
+  <si>
+    <t>sarath</t>
+  </si>
+  <si>
+    <t>kumaran47@gmail.com</t>
+  </si>
+  <si>
     <t>krishna.sabbu@gmail.com</t>
   </si>
   <si>
-    <t>sunil.ynvd@gmail.com</t>
-  </si>
-  <si>
-    <t>haripriyanv@gmail.com</t>
-  </si>
-  <si>
-    <t>krisbhappy@icloud.com</t>
-  </si>
-  <si>
-    <t>vdpchittala@gmail.com</t>
+    <t>srevuri2@gmail.com</t>
+  </si>
+  <si>
+    <t>quadri.yousuf8@gmail.com</t>
+  </si>
+  <si>
+    <t>sonal.agrawal9947@gmail.com</t>
+  </si>
+  <si>
+    <t>flowervalli@gmail.com</t>
+  </si>
+  <si>
+    <t>keerthanasenthil02@gmail.com</t>
+  </si>
+  <si>
+    <t>joacatar@gmail.com</t>
+  </si>
+  <si>
+    <t>kundanikareddyb@gmail.com</t>
+  </si>
+  <si>
+    <t>simhadri.bobba@gmail.com</t>
+  </si>
+  <si>
+    <t>rameshsankars@gmail.com</t>
+  </si>
+  <si>
+    <t>jaswanthrajeti@gmail.com</t>
+  </si>
+  <si>
+    <t>jyothsna.munipalle@gmail.com</t>
+  </si>
+  <si>
+    <t>vamsikrishnabattineedi@gmail.com</t>
+  </si>
+  <si>
+    <t>tarunbc29@gmail.com</t>
   </si>
   <si>
     <t>kalyan9999@live.com</t>
   </si>
   <si>
-    <t>sarath</t>
-  </si>
-  <si>
-    <t>sanzay.16@gmail.com</t>
-  </si>
-  <si>
-    <t>sonal.agrawal9947@gmail.com</t>
-  </si>
-  <si>
-    <t>quadri.yousuf8@gmail.com</t>
-  </si>
-  <si>
-    <t>srevuri2@gmail.com</t>
-  </si>
-  <si>
-    <t>flowervalli@gmail.com</t>
-  </si>
-  <si>
-    <t>kundanikareddyb@gmail.com</t>
-  </si>
-  <si>
-    <t>joacatar@gmail.com</t>
-  </si>
-  <si>
-    <t>keerthanasenthil02@gmail.com</t>
-  </si>
-  <si>
-    <t>simhadri.bobba@gmail.com</t>
-  </si>
-  <si>
-    <t>rameshsankars@gmail.com</t>
-  </si>
-  <si>
-    <t>jaswanthrajeti@gmail.com</t>
-  </si>
-  <si>
-    <t>jyothsna.munipalle@gmail.com</t>
-  </si>
-  <si>
-    <t>vamsikrishnabattineedi@gmail.com</t>
-  </si>
-  <si>
-    <t>tarunbc29@gmail.com</t>
-  </si>
-  <si>
-    <t>kumaran47@gmail.com</t>
-  </si>
-  <si>
     <t>revathipadma25@gmail.com</t>
   </si>
   <si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>cardio, strength_training</t>
+  </si>
+  <si>
+    <t>cardio, sport</t>
   </si>
   <si>
     <t>cardio, yoga</t>
@@ -569,7 +572,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -584,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>164</v>
+        <v>164.99</v>
       </c>
       <c r="G3">
         <v>900</v>
@@ -621,7 +624,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -699,7 +702,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -714,7 +717,7 @@
         <v>20.926</v>
       </c>
       <c r="F8">
-        <v>125</v>
+        <v>404</v>
       </c>
       <c r="G8">
         <v>680</v>
@@ -731,22 +734,22 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>15150</v>
+        <v>2085</v>
       </c>
       <c r="D9">
-        <v>413</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>7.04</v>
+        <v>5.1</v>
       </c>
       <c r="F9">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G9">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -757,16 +760,16 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>16388</v>
+        <v>15150</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="E10">
-        <v>11.35</v>
+        <v>7.04</v>
       </c>
       <c r="F10">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="G10">
         <v>600</v>
@@ -777,7 +780,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -824,7 +827,7 @@
         <v>535</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -850,7 +853,7 @@
         <v>500</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -870,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="G14">
         <v>450</v>
@@ -887,22 +890,22 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>7074</v>
+        <v>5932</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="F15">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>435</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -913,22 +916,22 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>5932</v>
+        <v>10000</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="F16">
-        <v>42</v>
+        <v>1.8</v>
       </c>
       <c r="G16">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -939,22 +942,22 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>2085</v>
+        <v>6606</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.1</v>
+        <v>11.35</v>
       </c>
       <c r="F17">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G17">
-        <v>425</v>
+        <v>335</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -965,19 +968,19 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>10000</v>
+        <v>394</v>
       </c>
       <c r="D18">
-        <v>1095</v>
+        <v>657</v>
       </c>
       <c r="E18">
-        <v>17.52</v>
+        <v>16.27</v>
       </c>
       <c r="F18">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="G18">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="H18" t="s">
         <v>40</v>
@@ -985,7 +988,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1011,22 +1014,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20">
-        <v>394</v>
+        <v>65</v>
       </c>
       <c r="D20">
-        <v>657</v>
+        <v>1095</v>
       </c>
       <c r="E20">
-        <v>16.27</v>
+        <v>17.52</v>
       </c>
       <c r="F20">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>325</v>
@@ -1037,7 +1040,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -1072,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>3.5</v>
+        <v>14.9</v>
       </c>
       <c r="F22">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="G22">
         <v>300</v>
@@ -1089,7 +1092,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1110,12 +1113,12 @@
         <v>300</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1124,13 +1127,13 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="E24">
-        <v>14.9</v>
+        <v>3.5</v>
       </c>
       <c r="F24">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G24">
         <v>300</v>
@@ -1141,7 +1144,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1167,7 +1170,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -1216,7 +1219,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -1239,7 +1242,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -1262,7 +1265,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -1291,24 +1294,24 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>10000</v>
+        <v>7074</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.8</v>
+        <v>179</v>
       </c>
       <c r="G31">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>

--- a/data/2026-01-26/leaderboard.xlsx
+++ b/data/2026-01-26/leaderboard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>rank</t>
   </si>
@@ -40,121 +40,133 @@
     <t>workout_types</t>
   </si>
   <si>
+    <t>joacatar@gmail.com</t>
+  </si>
+  <si>
+    <t>adiagutsyboy@gmail.com</t>
+  </si>
+  <si>
+    <t>vaishali14041992@gmail.com</t>
+  </si>
+  <si>
+    <t>sjraut3108@gmail.com</t>
+  </si>
+  <si>
+    <t>sanzay.16@gmail.com</t>
+  </si>
+  <si>
+    <t>krisbhappy@icloud.com</t>
+  </si>
+  <si>
+    <t>haripriyanv@gmail.com</t>
+  </si>
+  <si>
+    <t>sarath</t>
+  </si>
+  <si>
     <t>avinash.b0802@gmail.com</t>
   </si>
   <si>
     <t>karthikchetla0308@gmail.com</t>
   </si>
   <si>
+    <t>kalyan9999@live.com</t>
+  </si>
+  <si>
+    <t>anjaneyulu.sriram@gmail.com</t>
+  </si>
+  <si>
+    <t>kundanikareddyb@gmail.com</t>
+  </si>
+  <si>
+    <t>manish.indoriya@gmail.com</t>
+  </si>
+  <si>
+    <t>krishna.sabbu@gmail.com</t>
+  </si>
+  <si>
+    <t>kumaran47@gmail.com</t>
+  </si>
+  <si>
+    <t>keerthanasenthil02@gmail.com</t>
+  </si>
+  <si>
     <t>ghoshsubhajit75@gmail.com</t>
   </si>
   <si>
+    <t>flowervalli@gmail.com</t>
+  </si>
+  <si>
+    <t>sunil.ynvd@gmail.com</t>
+  </si>
+  <si>
+    <t>sonal.agrawal9947@gmail.com</t>
+  </si>
+  <si>
+    <t>srevuri2@gmail.com</t>
+  </si>
+  <si>
+    <t>quadri.yousuf8@gmail.com</t>
+  </si>
+  <si>
+    <t>shreeya.sengupta@gmail.com</t>
+  </si>
+  <si>
+    <t>rameshsankars@gmail.com</t>
+  </si>
+  <si>
+    <t>simhadri.bobba@gmail.com</t>
+  </si>
+  <si>
     <t>rajasekhar150520@gmail.com</t>
   </si>
   <si>
-    <t>adiagutsyboy@gmail.com</t>
-  </si>
-  <si>
-    <t>sjraut3108@gmail.com</t>
-  </si>
-  <si>
-    <t>vaishali14041992@gmail.com</t>
-  </si>
-  <si>
-    <t>sanzay.16@gmail.com</t>
-  </si>
-  <si>
-    <t>manish.indoriya@gmail.com</t>
-  </si>
-  <si>
-    <t>sunil.ynvd@gmail.com</t>
-  </si>
-  <si>
-    <t>haripriyanv@gmail.com</t>
-  </si>
-  <si>
-    <t>krisbhappy@icloud.com</t>
-  </si>
-  <si>
     <t>vdpchittala@gmail.com</t>
   </si>
   <si>
-    <t>sarath</t>
-  </si>
-  <si>
-    <t>sonal.agrawal9947@gmail.com</t>
-  </si>
-  <si>
-    <t>krishna.sabbu@gmail.com</t>
-  </si>
-  <si>
-    <t>srevuri2@gmail.com</t>
-  </si>
-  <si>
-    <t>quadri.yousuf8@gmail.com</t>
-  </si>
-  <si>
-    <t>flowervalli@gmail.com</t>
-  </si>
-  <si>
-    <t>keerthanasenthil02@gmail.com</t>
-  </si>
-  <si>
-    <t>kundanikareddyb@gmail.com</t>
-  </si>
-  <si>
-    <t>joacatar@gmail.com</t>
-  </si>
-  <si>
-    <t>rameshsankars@gmail.com</t>
-  </si>
-  <si>
-    <t>simhadri.bobba@gmail.com</t>
+    <t>sree.chbiotech@gmail.com</t>
+  </si>
+  <si>
+    <t>jyothsna.munipalle@gmail.com</t>
+  </si>
+  <si>
+    <t>bhanubysani@gmail.com</t>
+  </si>
+  <si>
+    <t>jaswanthrajeti@gmail.com</t>
+  </si>
+  <si>
+    <t>revathipadma25@gmail.com</t>
   </si>
   <si>
     <t>tarunbc29@gmail.com</t>
   </si>
   <si>
-    <t>jyothsna.munipalle@gmail.com</t>
-  </si>
-  <si>
-    <t>jaswanthrajeti@gmail.com</t>
-  </si>
-  <si>
     <t>vamsikrishnabattineedi@gmail.com</t>
   </si>
   <si>
-    <t>kumaran47@gmail.com</t>
-  </si>
-  <si>
-    <t>kalyan9999@live.com</t>
-  </si>
-  <si>
-    <t>revathipadma25@gmail.com</t>
+    <t>cardio, strength_training, yoga</t>
+  </si>
+  <si>
+    <t>sport, strength_training</t>
+  </si>
+  <si>
+    <t>cardio, strength_training</t>
+  </si>
+  <si>
+    <t>cardio, sport</t>
+  </si>
+  <si>
+    <t>cardio, yoga</t>
+  </si>
+  <si>
+    <t>strength_training</t>
   </si>
   <si>
     <t>sport</t>
   </si>
   <si>
     <t>cardio</t>
-  </si>
-  <si>
-    <t>sport, strength_training</t>
-  </si>
-  <si>
-    <t>cardio, strength_training</t>
-  </si>
-  <si>
-    <t>cardio, sport</t>
-  </si>
-  <si>
-    <t>cardio, yoga</t>
-  </si>
-  <si>
-    <t>strength_training</t>
-  </si>
-  <si>
-    <t>yoga</t>
   </si>
 </sst>
 </file>
@@ -512,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,48 +564,48 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>20089</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1153</v>
+        <v>562</v>
       </c>
       <c r="E2">
-        <v>16.02</v>
+        <v>0.96</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="G2">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3">
-        <v>23911</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>181</v>
+        <v>887</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7.56</v>
       </c>
       <c r="F3">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="G3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -604,22 +616,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>20790</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>67</v>
+        <v>950</v>
       </c>
       <c r="E4">
-        <v>5.63</v>
+        <v>20.926</v>
       </c>
       <c r="F4">
-        <v>35</v>
+        <v>507</v>
       </c>
       <c r="G4">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -630,48 +642,48 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>26156</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30.47</v>
+        <v>4.5</v>
       </c>
       <c r="F5">
-        <v>1368</v>
+        <v>155</v>
       </c>
       <c r="G5">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>7.56</v>
+        <v>5.1</v>
       </c>
       <c r="F6">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="G6">
-        <v>725</v>
+        <v>600</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -682,22 +694,22 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>8399</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E7">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="G7">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -708,22 +720,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>9886</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>20.926</v>
+        <v>3.9</v>
       </c>
       <c r="F8">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -734,100 +746,100 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>2085</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.1</v>
+        <v>1.36</v>
       </c>
       <c r="F9">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G9">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10">
-        <v>15150</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>413</v>
+        <v>1153</v>
       </c>
       <c r="E10">
-        <v>7.04</v>
+        <v>16.02</v>
       </c>
       <c r="F10">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="G10">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11">
-        <v>15729</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>2385</v>
+        <v>181</v>
       </c>
       <c r="E11">
-        <v>16.73</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>222</v>
+        <v>164.29</v>
       </c>
       <c r="G11">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12">
-        <v>5007</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="G12">
-        <v>535</v>
+        <v>400</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -841,186 +853,186 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G13">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="C14">
-        <v>11796</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F14">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="G14">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15">
-        <v>5932</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="E15">
-        <v>1.36</v>
+        <v>7.04</v>
       </c>
       <c r="F15">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="G15">
-        <v>435</v>
+        <v>300</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1095</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>17.52</v>
+        <v>11.35</v>
       </c>
       <c r="F16">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="G16">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17">
-        <v>6606</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>11.35</v>
+        <v>1.8</v>
       </c>
       <c r="F17">
-        <v>87</v>
+        <v>1.8</v>
       </c>
       <c r="G17">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>16.27</v>
+        <v>14.9</v>
       </c>
       <c r="F18">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="G18">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19">
-        <v>4929</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>5.63</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G19">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1029,18 +1041,18 @@
         <v>176.94</v>
       </c>
       <c r="F20">
-        <v>267</v>
+        <v>47</v>
       </c>
       <c r="G20">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -1049,24 +1061,24 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2385</v>
       </c>
       <c r="E21">
-        <v>14.9</v>
+        <v>16.73</v>
       </c>
       <c r="F21">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="G21">
         <v>300</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1075,24 +1087,24 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>227</v>
+        <v>1095</v>
       </c>
       <c r="E22">
-        <v>3.5</v>
+        <v>17.52</v>
       </c>
       <c r="F22">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>300</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1101,24 +1113,24 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>207</v>
+        <v>657</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>16.26</v>
       </c>
       <c r="F23">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="G23">
         <v>300</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1133,18 +1145,18 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G24">
         <v>300</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1156,27 +1168,27 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>845</v>
+        <v>2.87</v>
       </c>
       <c r="F25">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>300</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26">
-        <v>10021</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1185,67 +1197,76 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G26">
-        <v>250</v>
+        <v>300</v>
+      </c>
+      <c r="H26" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
       <c r="C27">
-        <v>10832</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G27">
-        <v>250</v>
+        <v>300</v>
+      </c>
+      <c r="H27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
       <c r="C28">
-        <v>12099</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>30.47</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1368</v>
       </c>
       <c r="G28">
-        <v>250</v>
+        <v>300</v>
+      </c>
+      <c r="H28" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
       <c r="C29">
-        <v>10072</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1254,33 +1275,39 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G29">
-        <v>250</v>
+        <v>300</v>
+      </c>
+      <c r="H29" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
       </c>
       <c r="C30">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>1916</v>
       </c>
       <c r="E30">
-        <v>1.8</v>
+        <v>7.43</v>
       </c>
       <c r="F30">
-        <v>1.8</v>
+        <v>90</v>
       </c>
       <c r="G30">
-        <v>180</v>
+        <v>300</v>
+      </c>
+      <c r="H30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1291,7 +1318,7 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>7074</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1300,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1314,7 +1341,7 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>6733</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1326,7 +1353,99 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>135</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/2026-01-26/leaderboard.xlsx
+++ b/data/2026-01-26/leaderboard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>rank</t>
   </si>
@@ -40,133 +40,133 @@
     <t>workout_types</t>
   </si>
   <si>
+    <t>avinash.b0802@gmail.com</t>
+  </si>
+  <si>
+    <t>karthikchetla0308@gmail.com</t>
+  </si>
+  <si>
+    <t>kalyan9999@live.com</t>
+  </si>
+  <si>
     <t>joacatar@gmail.com</t>
   </si>
   <si>
+    <t>rajasekhar150520@gmail.com</t>
+  </si>
+  <si>
+    <t>sonal.agrawal9947@gmail.com</t>
+  </si>
+  <si>
+    <t>ghoshsubhajit75@gmail.com</t>
+  </si>
+  <si>
     <t>adiagutsyboy@gmail.com</t>
   </si>
   <si>
     <t>vaishali14041992@gmail.com</t>
   </si>
   <si>
+    <t>sunil.ynvd@gmail.com</t>
+  </si>
+  <si>
+    <t>krishna.sabbu@gmail.com</t>
+  </si>
+  <si>
+    <t>srevuri2@gmail.com</t>
+  </si>
+  <si>
+    <t>manish.indoriya@gmail.com</t>
+  </si>
+  <si>
+    <t>krisbhappy@icloud.com</t>
+  </si>
+  <si>
     <t>sjraut3108@gmail.com</t>
   </si>
   <si>
+    <t>flowervalli@gmail.com</t>
+  </si>
+  <si>
+    <t>sarath</t>
+  </si>
+  <si>
     <t>sanzay.16@gmail.com</t>
   </si>
   <si>
-    <t>krisbhappy@icloud.com</t>
-  </si>
-  <si>
     <t>haripriyanv@gmail.com</t>
   </si>
   <si>
-    <t>sarath</t>
-  </si>
-  <si>
-    <t>avinash.b0802@gmail.com</t>
-  </si>
-  <si>
-    <t>karthikchetla0308@gmail.com</t>
-  </si>
-  <si>
-    <t>kalyan9999@live.com</t>
+    <t>keerthanasenthil02@gmail.com</t>
+  </si>
+  <si>
+    <t>rameshsankars@gmail.com</t>
+  </si>
+  <si>
+    <t>shreeya.sengupta@gmail.com</t>
+  </si>
+  <si>
+    <t>simhadri.bobba@gmail.com</t>
+  </si>
+  <si>
+    <t>vdpchittala@gmail.com</t>
+  </si>
+  <si>
+    <t>jaswanthrajeti@gmail.com</t>
+  </si>
+  <si>
+    <t>jyothsna.munipalle@gmail.com</t>
+  </si>
+  <si>
+    <t>vamsikrishnabattineedi@gmail.com</t>
+  </si>
+  <si>
+    <t>tarunbc29@gmail.com</t>
+  </si>
+  <si>
+    <t>sree.chbiotech@gmail.com</t>
   </si>
   <si>
     <t>anjaneyulu.sriram@gmail.com</t>
   </si>
   <si>
+    <t>bhanubysani@gmail.com</t>
+  </si>
+  <si>
+    <t>revathipadma25@gmail.com</t>
+  </si>
+  <si>
+    <t>quadri.yousuf8@gmail.com</t>
+  </si>
+  <si>
+    <t>kumaran47@gmail.com</t>
+  </si>
+  <si>
     <t>kundanikareddyb@gmail.com</t>
   </si>
   <si>
-    <t>manish.indoriya@gmail.com</t>
-  </si>
-  <si>
-    <t>krishna.sabbu@gmail.com</t>
-  </si>
-  <si>
-    <t>kumaran47@gmail.com</t>
-  </si>
-  <si>
-    <t>keerthanasenthil02@gmail.com</t>
-  </si>
-  <si>
-    <t>ghoshsubhajit75@gmail.com</t>
-  </si>
-  <si>
-    <t>flowervalli@gmail.com</t>
-  </si>
-  <si>
-    <t>sunil.ynvd@gmail.com</t>
-  </si>
-  <si>
-    <t>sonal.agrawal9947@gmail.com</t>
-  </si>
-  <si>
-    <t>srevuri2@gmail.com</t>
-  </si>
-  <si>
-    <t>quadri.yousuf8@gmail.com</t>
-  </si>
-  <si>
-    <t>shreeya.sengupta@gmail.com</t>
-  </si>
-  <si>
-    <t>rameshsankars@gmail.com</t>
-  </si>
-  <si>
-    <t>simhadri.bobba@gmail.com</t>
-  </si>
-  <si>
-    <t>rajasekhar150520@gmail.com</t>
-  </si>
-  <si>
-    <t>vdpchittala@gmail.com</t>
-  </si>
-  <si>
-    <t>sree.chbiotech@gmail.com</t>
-  </si>
-  <si>
-    <t>jyothsna.munipalle@gmail.com</t>
-  </si>
-  <si>
-    <t>bhanubysani@gmail.com</t>
-  </si>
-  <si>
-    <t>jaswanthrajeti@gmail.com</t>
-  </si>
-  <si>
-    <t>revathipadma25@gmail.com</t>
-  </si>
-  <si>
-    <t>tarunbc29@gmail.com</t>
-  </si>
-  <si>
-    <t>vamsikrishnabattineedi@gmail.com</t>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>strength_training</t>
   </si>
   <si>
     <t>cardio, strength_training, yoga</t>
   </si>
   <si>
+    <t>cardio</t>
+  </si>
+  <si>
     <t>sport, strength_training</t>
   </si>
   <si>
     <t>cardio, strength_training</t>
   </si>
   <si>
-    <t>cardio, sport</t>
-  </si>
-  <si>
     <t>cardio, yoga</t>
   </si>
   <si>
-    <t>strength_training</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>cardio</t>
+    <t>yoga</t>
   </si>
 </sst>
 </file>
@@ -564,19 +564,19 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>20089</v>
       </c>
       <c r="D2">
-        <v>562</v>
+        <v>1153</v>
       </c>
       <c r="E2">
-        <v>0.96</v>
+        <v>16.02</v>
       </c>
       <c r="F2">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H2" t="s">
         <v>43</v>
@@ -584,77 +584,77 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>23911</v>
       </c>
       <c r="D3">
-        <v>887</v>
+        <v>181</v>
       </c>
       <c r="E3">
-        <v>7.56</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>154</v>
+        <v>164.29</v>
       </c>
       <c r="G3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>20239</v>
       </c>
       <c r="D4">
-        <v>950</v>
+        <v>493</v>
       </c>
       <c r="E4">
-        <v>20.926</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>507</v>
+        <v>179</v>
       </c>
       <c r="G4">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8103</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="E5">
-        <v>4.5</v>
+        <v>0.96</v>
       </c>
       <c r="F5">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G5">
-        <v>600</v>
+        <v>880</v>
       </c>
       <c r="H5" t="s">
         <v>45</v>
@@ -662,25 +662,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>26156</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.1</v>
+        <v>30.47</v>
       </c>
       <c r="F6">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="G6">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
@@ -688,54 +688,54 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>22165</v>
       </c>
       <c r="D7">
-        <v>180</v>
+        <v>1095</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>17.52</v>
       </c>
       <c r="F7">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>20790</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E8">
-        <v>3.9</v>
+        <v>5.63</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G8">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -749,154 +749,154 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="E9">
-        <v>1.36</v>
+        <v>7.56</v>
       </c>
       <c r="F9">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="G9">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>8862</v>
       </c>
       <c r="D10">
-        <v>1153</v>
+        <v>950</v>
       </c>
       <c r="E10">
-        <v>16.02</v>
+        <v>20.926</v>
       </c>
       <c r="F10">
-        <v>60</v>
+        <v>507</v>
       </c>
       <c r="G10">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>15729</v>
       </c>
       <c r="D11">
+        <v>2385</v>
+      </c>
+      <c r="E11">
+        <v>16.73</v>
+      </c>
+      <c r="F11">
         <v>181</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>164.29</v>
-      </c>
       <c r="G11">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>15977</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>11.35</v>
       </c>
       <c r="F12">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="G12">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>15394</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>16.26</v>
       </c>
       <c r="F13">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="G13">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>15150</v>
       </c>
       <c r="D14">
-        <v>227</v>
+        <v>413</v>
       </c>
       <c r="E14">
-        <v>3.5</v>
+        <v>7.04</v>
       </c>
       <c r="F14">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="G14">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -905,146 +905,146 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>413</v>
+        <v>180</v>
       </c>
       <c r="E15">
-        <v>7.04</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="G15">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>8399</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.35</v>
+        <v>4.5</v>
       </c>
       <c r="F16">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="G16">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>11353</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1.8</v>
+        <v>176.94</v>
       </c>
       <c r="F17">
-        <v>1.8</v>
+        <v>47</v>
       </c>
       <c r="G17">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>5932</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.9</v>
+        <v>1.36</v>
       </c>
       <c r="F18">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G18">
-        <v>300</v>
+        <v>435</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2085</v>
       </c>
       <c r="D19">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>5.63</v>
+        <v>5.1</v>
       </c>
       <c r="F19">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="G19">
-        <v>300</v>
+        <v>425</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>5007</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>176.94</v>
+        <v>3.9</v>
       </c>
       <c r="F20">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G20">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="H20" t="s">
         <v>50</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -1061,24 +1061,24 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2385</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>16.73</v>
+        <v>14.9</v>
       </c>
       <c r="F21">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="G21">
         <v>300</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1087,24 +1087,24 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1095</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>17.52</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>300</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1113,24 +1113,24 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>16.26</v>
+        <v>2.87</v>
       </c>
       <c r="F23">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="G23">
         <v>300</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1142,53 +1142,50 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="F24">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="G24">
         <v>300</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>11796</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G25">
-        <v>300</v>
-      </c>
-      <c r="H25" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>12099</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1197,76 +1194,67 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>300</v>
-      </c>
-      <c r="H26" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>10832</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>845</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>300</v>
-      </c>
-      <c r="H27" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>10072</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>30.47</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>300</v>
-      </c>
-      <c r="H28" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>10021</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1275,24 +1263,21 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>300</v>
-      </c>
-      <c r="H29" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>9804</v>
       </c>
       <c r="D30">
         <v>1916</v>
@@ -1304,10 +1289,7 @@
         <v>90</v>
       </c>
       <c r="G30">
-        <v>300</v>
-      </c>
-      <c r="H30" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1318,7 +1300,7 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>5868</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1327,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G31">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1341,7 +1323,7 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>7435</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1353,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1364,7 +1346,7 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>6733</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1376,18 +1358,18 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>4929</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1396,56 +1378,56 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G34">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>2335</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G36">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
